--- a/To-Do-List.xlsx
+++ b/To-Do-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>务必做一些简单的测试，保证可行</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>能否和我讨论下做法有哪些？</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -566,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -586,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -606,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -640,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -712,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -720,7 +726,9 @@
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
